--- a/포폴완성계획.xlsx
+++ b/포폴완성계획.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661D4712-D0FC-4912-AF4D-90FFA5D9E8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEDB4EC-1CDE-47CA-9508-D4E17EF2F6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,47 +55,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전투 시스템 작성</t>
+    <t>화령사 마무리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 전투 디자인</t>
+    <t>컨셉 / 아크패시브 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초각성 / 각성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초각스킬/스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 컨셉 정립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임의 컨셉 정리 및 문서화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표: 상태 정의(평화, 전투, 피격 상태 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표: 코어 전투 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표: 전투 공식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표: 개요 및 양식, 조작 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 1주 목표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표: 몬스터 AI 관련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -148,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,31 +157,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBFFF0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFE7E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDDF8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,14 +265,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -315,25 +279,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -344,6 +305,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE7E7"/>
       <color rgb="FFFFDDF8"/>
       <color rgb="FFEBFFF0"/>
     </mruColors>
@@ -1218,269 +1180,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="3"/>
-    <col min="2" max="8" width="24.3984375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="3"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="8" width="24.3984375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <v>45615</v>
-      </c>
-      <c r="E3" s="7">
-        <v>45616</v>
-      </c>
-      <c r="F3" s="7">
-        <v>45617</v>
-      </c>
-      <c r="G3" s="7">
-        <v>45618</v>
-      </c>
-      <c r="H3" s="7">
-        <v>45619</v>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <v>45644</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45645</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45646</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45647</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="95.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="10">
-        <v>45620</v>
-      </c>
-      <c r="C6" s="10">
-        <v>45621</v>
-      </c>
-      <c r="D6" s="10">
-        <v>45622</v>
-      </c>
-      <c r="E6" s="10">
-        <v>45623</v>
-      </c>
-      <c r="F6" s="10">
-        <v>45624</v>
-      </c>
-      <c r="G6" s="10">
-        <v>45625</v>
-      </c>
-      <c r="H6" s="10">
-        <v>45626</v>
+      <c r="B6" s="7">
+        <v>45648</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45649</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45650</v>
+      </c>
+      <c r="E6" s="7">
+        <v>45651</v>
+      </c>
+      <c r="F6" s="7">
+        <v>45652</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45653</v>
+      </c>
+      <c r="H6" s="7">
+        <v>45654</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" ht="95.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="10">
-        <v>45627</v>
-      </c>
-      <c r="C9" s="10">
-        <v>45628</v>
-      </c>
-      <c r="D9" s="10">
-        <v>45629</v>
-      </c>
-      <c r="E9" s="10">
-        <v>45630</v>
-      </c>
-      <c r="F9" s="10">
-        <v>45631</v>
-      </c>
-      <c r="G9" s="10">
-        <v>45632</v>
-      </c>
-      <c r="H9" s="10">
-        <v>45633</v>
+      <c r="B9" s="7">
+        <v>45655</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45656</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45657</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45658</v>
+      </c>
+      <c r="F9" s="7">
+        <v>45659</v>
+      </c>
+      <c r="G9" s="7">
+        <v>45660</v>
+      </c>
+      <c r="H9" s="7">
+        <v>45661</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" ht="95.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="10">
-        <v>45634</v>
-      </c>
-      <c r="C12" s="10">
-        <v>45635</v>
-      </c>
-      <c r="D12" s="10">
-        <v>45636</v>
-      </c>
-      <c r="E12" s="10">
-        <v>45637</v>
-      </c>
-      <c r="F12" s="10">
-        <v>45638</v>
-      </c>
-      <c r="G12" s="10">
-        <v>45639</v>
-      </c>
-      <c r="H12" s="10">
-        <v>45640</v>
+      <c r="B12" s="7">
+        <v>45296</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45297</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45298</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45299</v>
+      </c>
+      <c r="F12" s="7">
+        <v>45300</v>
+      </c>
+      <c r="G12" s="7">
+        <v>45301</v>
+      </c>
+      <c r="H12" s="7">
+        <v>45302</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="95.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
